--- a/test01/ScoreCalculator/Design_01test1.xlsx
+++ b/test01/ScoreCalculator/Design_01test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\CANADA\COLLEGE\2_TERM\2_CSD2354_ProgrammingC#NET\Github_Repository\Assignments\test01\ScoreCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AC4D6B-6A8B-40B4-AD42-1172E43C5E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F00A41E-7A24-4EF5-8829-8DE1D8A31CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5520" yWindow="4320" windowWidth="11376" windowHeight="9420" xr2:uid="{3C4068DF-F92D-4EAA-A5F6-4C8557B6631E}"/>
+    <workbookView xWindow="16548" yWindow="2784" windowWidth="11376" windowHeight="9420" xr2:uid="{3C4068DF-F92D-4EAA-A5F6-4C8557B6631E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>TextAlign</t>
   </si>
   <si>
-    <t>MiddleLeft</t>
-  </si>
-  <si>
     <t>button2</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>&amp;Clear</t>
+  </si>
+  <si>
+    <t>MiddleRight</t>
   </si>
 </sst>
 </file>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91CE22C-7D43-4C9F-814A-330414B31299}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,7 +779,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -803,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -823,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -837,13 +837,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -857,13 +857,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -872,24 +872,24 @@
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="12" t="b">
         <v>1</v>
@@ -898,7 +898,7 @@
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="10" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -921,24 +921,24 @@
         <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="12" t="b">
         <v>1</v>
@@ -947,7 +947,7 @@
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="10" t="b">
         <v>0</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -970,24 +970,24 @@
         <v>9</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="12" t="b">
         <v>1</v>
@@ -996,7 +996,7 @@
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10" t="b">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1033,13 +1033,13 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1048,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1062,13 +1062,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
